--- a/match_data.xlsx
+++ b/match_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIjudege\Val\VCTS4\数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA114303-52BE-44BE-BBFD-54716F2A0F5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F0C48C-2D08-4CB6-B8C5-6E17724EE0FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="52">
   <si>
     <t>match_id</t>
   </si>
@@ -145,10 +145,6 @@
   </si>
   <si>
     <t>总决赛</t>
-  </si>
-  <si>
-    <t>Spirt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Mouz</t>
@@ -177,6 +173,18 @@
   <si>
     <t>Astralls</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次元</t>
+  </si>
+  <si>
+    <t>Spirit</t>
+  </si>
+  <si>
+    <t>原神</t>
+  </si>
+  <si>
+    <t>Vitality</t>
   </si>
 </sst>
 </file>
@@ -588,7 +596,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="A1:E17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -630,10 +638,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
         <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -653,10 +661,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
         <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -676,10 +684,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -699,10 +707,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -722,10 +730,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -745,10 +753,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -768,10 +776,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -791,10 +799,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -814,10 +822,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -837,10 +845,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -860,10 +868,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -883,10 +891,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
         <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -906,10 +914,10 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -929,10 +937,10 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -952,10 +960,10 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -975,10 +983,10 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1032,10 +1040,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
         <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1049,10 +1057,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
         <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1066,10 +1074,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1083,10 +1091,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1100,10 +1108,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1117,10 +1125,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1134,10 +1142,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1151,10 +1159,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1168,10 +1176,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1185,10 +1193,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1202,10 +1210,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1219,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
         <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1236,10 +1244,10 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1253,10 +1261,10 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1270,10 +1278,10 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1287,10 +1295,10 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1310,7 +1318,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E17"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1337,10 +1345,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1354,10 +1362,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
         <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1371,10 +1379,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1388,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1405,10 +1413,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1422,10 +1430,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1439,10 +1447,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1456,10 +1464,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1473,10 +1481,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1490,10 +1498,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1507,10 +1515,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1524,10 +1532,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
         <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1541,10 +1549,10 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1558,10 +1566,10 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1575,10 +1583,10 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1592,10 +1600,10 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D17">
         <v>3</v>

--- a/match_data.xlsx
+++ b/match_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIjudege\Val\VCTS4\数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F0C48C-2D08-4CB6-B8C5-6E17724EE0FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389F008D-03AB-42EB-B455-AC4C97F64C94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="54">
   <si>
     <t>match_id</t>
   </si>
@@ -185,13 +185,21 @@
   </si>
   <si>
     <t>Vitality</t>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1GJ411x7h7/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +222,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -223,7 +239,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -246,18 +262,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -593,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -610,7 +643,7 @@
     <col min="7" max="7" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,8 +665,11 @@
       <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -656,7 +692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -679,7 +715,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -702,7 +738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -725,7 +761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -748,7 +784,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -771,7 +807,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -794,7 +830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -817,7 +853,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -840,7 +876,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -863,7 +899,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -886,7 +922,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -909,7 +945,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -932,7 +968,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -955,7 +991,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1010,15 +1046,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E17"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1034,8 +1070,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1052,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1069,7 +1108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1086,7 +1125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1103,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1120,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1137,7 +1176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1154,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1171,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1188,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1205,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1222,7 +1261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1239,7 +1278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1256,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1273,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1315,15 +1354,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1339,8 +1378,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1357,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1374,7 +1416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1391,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1408,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1425,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1442,7 +1484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1459,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1476,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1493,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1510,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1527,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1544,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1561,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1578,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1595,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1611,9 +1653,15 @@
       <c r="E17">
         <v>0</v>
       </c>
+      <c r="F17" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F17" r:id="rId1" xr:uid="{2613CD1C-93CC-4FF4-9F82-DE2E32E3934C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/match_data.xlsx
+++ b/match_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIjudege\Val\VCTS4\数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389F008D-03AB-42EB-B455-AC4C97F64C94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF03D014-CC57-43B4-AE17-3CFEC0EB2604}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="挑战组" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="54">
   <si>
     <t>match_id</t>
   </si>
@@ -191,15 +191,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.bilibili.com/video/BV1GJ411x7h7/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>https://www.bilibili.com/video/BV1Pg411r7V5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,14 +219,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -274,11 +265,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -286,11 +276,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -628,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -691,6 +679,9 @@
       <c r="G2" t="s">
         <v>24</v>
       </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -714,6 +705,9 @@
       <c r="G3" t="s">
         <v>25</v>
       </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -737,6 +731,9 @@
       <c r="G4" t="s">
         <v>26</v>
       </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -760,6 +757,9 @@
       <c r="G5" t="s">
         <v>27</v>
       </c>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -783,6 +783,9 @@
       <c r="G6" t="s">
         <v>28</v>
       </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -806,6 +809,9 @@
       <c r="G7" t="s">
         <v>29</v>
       </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -829,6 +835,9 @@
       <c r="G8" t="s">
         <v>30</v>
       </c>
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -852,6 +861,9 @@
       <c r="G9" t="s">
         <v>31</v>
       </c>
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -875,6 +887,9 @@
       <c r="G10" t="s">
         <v>32</v>
       </c>
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
@@ -898,6 +913,9 @@
       <c r="G11" t="s">
         <v>33</v>
       </c>
+      <c r="H11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
@@ -921,6 +939,9 @@
       <c r="G12" t="s">
         <v>35</v>
       </c>
+      <c r="H12" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
@@ -944,6 +965,9 @@
       <c r="G13" t="s">
         <v>36</v>
       </c>
+      <c r="H13" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
@@ -967,6 +991,9 @@
       <c r="G14" t="s">
         <v>37</v>
       </c>
+      <c r="H14" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
@@ -990,6 +1017,9 @@
       <c r="G15" t="s">
         <v>38</v>
       </c>
+      <c r="H15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
@@ -1013,8 +1043,11 @@
       <c r="G16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1035,6 +1068,9 @@
       </c>
       <c r="G17" t="s">
         <v>40</v>
+      </c>
+      <c r="H17" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1049,7 +1085,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F2" sqref="F2:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1090,6 +1126,9 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -1107,6 +1146,9 @@
       <c r="E3">
         <v>2</v>
       </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -1124,6 +1166,9 @@
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -1141,6 +1186,9 @@
       <c r="E5">
         <v>0</v>
       </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -1158,6 +1206,9 @@
       <c r="E6">
         <v>0</v>
       </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -1175,6 +1226,9 @@
       <c r="E7">
         <v>0</v>
       </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -1192,6 +1246,9 @@
       <c r="E8">
         <v>0</v>
       </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -1209,6 +1266,9 @@
       <c r="E9">
         <v>0</v>
       </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -1226,6 +1286,9 @@
       <c r="E10">
         <v>0</v>
       </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
@@ -1243,6 +1306,9 @@
       <c r="E11">
         <v>0</v>
       </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
@@ -1260,6 +1326,9 @@
       <c r="E12">
         <v>0</v>
       </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
@@ -1277,6 +1346,9 @@
       <c r="E13">
         <v>0</v>
       </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
@@ -1294,6 +1366,9 @@
       <c r="E14">
         <v>0</v>
       </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
@@ -1311,6 +1386,9 @@
       <c r="E15">
         <v>0</v>
       </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
@@ -1328,8 +1406,11 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1344,6 +1425,9 @@
       </c>
       <c r="E17">
         <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1356,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1398,6 +1482,9 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -1415,6 +1502,9 @@
       <c r="E3">
         <v>2</v>
       </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -1432,6 +1522,9 @@
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -1449,6 +1542,9 @@
       <c r="E5">
         <v>0</v>
       </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -1466,6 +1562,9 @@
       <c r="E6">
         <v>0</v>
       </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -1483,6 +1582,9 @@
       <c r="E7">
         <v>0</v>
       </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -1500,6 +1602,9 @@
       <c r="E8">
         <v>0</v>
       </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -1517,6 +1622,9 @@
       <c r="E9">
         <v>0</v>
       </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -1534,6 +1642,9 @@
       <c r="E10">
         <v>0</v>
       </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
@@ -1551,6 +1662,9 @@
       <c r="E11">
         <v>0</v>
       </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
@@ -1568,6 +1682,9 @@
       <c r="E12">
         <v>0</v>
       </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
@@ -1585,6 +1702,9 @@
       <c r="E13">
         <v>0</v>
       </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
@@ -1602,6 +1722,9 @@
       <c r="E14">
         <v>0</v>
       </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
@@ -1619,6 +1742,9 @@
       <c r="E15">
         <v>0</v>
       </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
@@ -1636,6 +1762,9 @@
       <c r="E16">
         <v>0</v>
       </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
@@ -1653,15 +1782,13 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F17" r:id="rId1" xr:uid="{2613CD1C-93CC-4FF4-9F82-DE2E32E3934C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/match_data.xlsx
+++ b/match_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIjudege\Val\VCTS4\数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF03D014-CC57-43B4-AE17-3CFEC0EB2604}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDF0B9E-FD84-4F72-BE4C-227231E09569}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="挑战组" sheetId="1" r:id="rId1"/>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E32:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
